--- a/DOWNLOADS/EDITAIS/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO_master.xlsx
+++ b/DOWNLOADS/EDITAIS/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO_master.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,23 +43,24 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>-</t>
+    <t/>
   </si>
   <si>
     <t>Código 602332 — Amplificador de Som Descrição: Caixa de Som Amplificadora Tensão: 127V Impedância: 8 Ohm Tecnologia de comunicação sem fio: Bluetooth Entrada de áudio compatível como produto: Microfone, linha, USB, Cartão SD Peso do produto aproximado: 15kg Tipo de alto-falante: Woofer Características especiais: Reforço de graves, Áudio de alta resolução Componentes incluídos: Cabo de alimentação e Manual de instruções</t>
   </si>
   <si>
+    <t>DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO</t>
+  </si>
+  <si>
     <t>Código 628026 - Microfone Descrição: Tipo: Lapela Sem Fio Kit com 02 microfones Sistema de Transmissão: Sem Fio UHF Saída: P10 / Balanceada XLR Receptor UHF com 2 Antenas Alcance Efetivo: 50 metros Alimentação transmissor 2 x AA Frequências: 500 a 980 mh Nível de saída de Áudio: 10 dbm Alimentação do Transmissor: 2 Pilhas AA Sensibilidade - 96 dbm Frequência de Resposta 30 a 20.000 Hz Acompanha fonte</t>
-  </si>
-  <si>
-    <t>DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,10 +71,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,34 +100,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -130,10 +166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -171,69 +207,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,54 +295,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -314,7 +351,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -323,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -332,7 +369,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,10 +377,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -372,7 +409,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -385,13 +422,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -409,98 +445,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO_master.xlsx
+++ b/DOWNLOADS/EDITAIS/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO_master.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Nº</t>
   </si>
@@ -43,24 +43,20 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Código 602332 — Amplificador de Som Descrição: Caixa de Som Amplificadora Tensão: 127V Impedância: 8 Ohm Tecnologia de comunicação sem fio: Bluetooth Entrada de áudio compatível como produto: Microfone, linha, USB, Cartão SD Peso do produto aproximado: 15kg Tipo de alto-falante: Woofer Características especiais: Reforço de graves, Áudio de alta resolução Componentes incluídos: Cabo de alimentação e Manual de instruções</t>
+    <t>Código 602332 – Amplificador Som, Descrição: Caixa de Som Amplificadora, Tensão: 127V, Impedância: 8 Ohm, Tecnologia de comunicação sem fio: Bluetooth, Entrada de áudio compatível com o produto: Microfone, linha, USB, Cartão SD, Peso do produto aproximado: 15kg, Tipo de alto-falante: Woofer, Características especiais: Reforço de graves, Áudio de alta resolução, Componentes incluídos: Cabo de alimentação e Manual de instruções, Quantidade: 2 Unidades.</t>
+  </si>
+  <si>
+    <t>Código 628026 – Microfone, Descrição: Tipo: Lapela Sem Fio, Kit com 02 microfones, Sistema de Transmissão: Sem Fio UHF, Saída: P10 / Balanceada XLR, Receptor UHF com 2 Antenas, Alcance Efetivo: 50 metros, Alimentação transmissor 2 x AA, Frequências: 500 a 980 mh, Nível de saída de Áudio: 10 dbm, Alimentação do Transmissor: 2 Pilhas AA, Sensibilidade - 96 dbm, Frequência de Resposta 30 a 20.000 Hz, Acompanha fonte, Quantidade: 1 Unidade.</t>
   </si>
   <si>
     <t>DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO</t>
-  </si>
-  <si>
-    <t>Código 628026 - Microfone Descrição: Tipo: Lapela Sem Fio Kit com 02 microfones Sistema de Transmissão: Sem Fio UHF Saída: P10 / Balanceada XLR Receptor UHF com 2 Antenas Alcance Efetivo: 50 metros Alimentação transmissor 2 x AA Frequências: 500 a 980 mh Nível de saída de Áudio: 10 dbm Alimentação do Transmissor: 2 Pilhas AA Sensibilidade - 96 dbm Frequência de Resposta 30 a 20.000 Hz Acompanha fonte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,15 +67,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,64 +91,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -166,10 +127,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -207,71 +168,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -295,53 +254,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,7 +311,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -360,7 +320,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,7 +329,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,10 +337,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -409,7 +369,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -422,12 +382,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -445,111 +406,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DOWNLOADS/EDITAIS/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO_master.xlsx
+++ b/DOWNLOADS/EDITAIS/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO/DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Nº</t>
   </si>
@@ -43,10 +43,16 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Código 602332 – Amplificador Som, Descrição: Caixa de Som Amplificadora, Tensão: 127V, Impedância: 8 Ohm, Tecnologia de comunicação sem fio: Bluetooth, Entrada de áudio compatível com o produto: Microfone, linha, USB, Cartão SD, Peso do produto aproximado: 15kg, Tipo de alto-falante: Woofer, Características especiais: Reforço de graves, Áudio de alta resolução, Componentes incluídos: Cabo de alimentação e Manual de instruções, Quantidade: 2 Unidades.</t>
-  </si>
-  <si>
-    <t>Código 628026 – Microfone, Descrição: Tipo: Lapela Sem Fio, Kit com 02 microfones, Sistema de Transmissão: Sem Fio UHF, Saída: P10 / Balanceada XLR, Receptor UHF com 2 Antenas, Alcance Efetivo: 50 metros, Alimentação transmissor 2 x AA, Frequências: 500 a 980 mh, Nível de saída de Áudio: 10 dbm, Alimentação do Transmissor: 2 Pilhas AA, Sensibilidade - 96 dbm, Frequência de Resposta 30 a 20.000 Hz, Acompanha fonte, Quantidade: 1 Unidade.</t>
+    <t>CÂMERA DE VÍDEO (CAMCORDER) COM CAPACIDADE DE GRAVAÇÃO EM 4K A 60P. Captação interna em UHD 3840×2160 a 59,94/50p, Codecs HEVC/H.265 Main10 (10-bit), Long-GOP, em bitrate ≥ 200 Mb/s para 59,94/50p. Captação interna em 10-bit 4:2:2 para UHD 30p (MOV/MP4), com taxa de bits 150 Mb/s ou superior; Saída HDMI 2.0 (tipo A) com YCbCr 4:2:2 10-bit até 2160/59, 94p, compatível com gravação externa 4K60 10-bit 4:2:2. Sistema óptico integrado com sensor MOS 1.0" e lente grande angular com zoom óptico 20x, abertura típica F2.8–4.5, controle de íris, foco e zoom por anéis independentes e suporte a i.Zoom em UHD/FHD; Estabilização híbrida (HYBRID O.I.S.+) de 5 eixos operante em UHD/FHD; Filtros ND internos CLR, 1/4, 1/16, 1/64, (ou equivalentes); Subsistema de áudio com duas entradas XLR balanceadas com phantom +48 V; Armazenamento em duplo slot SDXC; Tela com EVF OLED (~0,39") e LCD (~3,5"), além de conectividade USB-C e Wi-Fi para controle e transferência; Formato handheld, sem apoio de ombro, com dimensões e peso típicos dessa classe (aprox. 171×195×343 mm, ~2,0 kg corpo, ou equivalentes no modelo proposto). Marca/modelo de referência: Panasonic HC-X20, SIMILAR OU DE MELHOR QUALIDADE. Vide catálogo ilustrativo em anexo</t>
+  </si>
+  <si>
+    <t>CÂMERA MIRRORLESS 45MP SENSOR CMOS, MODELO CANON SÉRIE R, CAPACIDADE DE CAPTAÇÃO DE VÍDEO 8K COM MODOS DE GRAVAÇÃO CINEMA RAW LIGHT. Marca CANON. Vide catálogo ilustrativo em anexo</t>
+  </si>
+  <si>
+    <t>CÂMERA DE AÇÃO COM CAPACIDADE DE CAPTAÇÃO 360º EM 8K. Codificação H.265/HEVC, e 5.7K até 60 fps, modo de HDR ativo ou tecnologia equivalente; Modo single-lens com resolução 4K até 60 fps e estabilização. Capacidade de captação em perfil de cor log I-Log, com bitrate compatível à resolução /taxa de quadros (classe ≥ 180 Mb/s em 8K/30p); Estabilização inercial/giroscópica FlowState ou equivalente, com horizon lock e calibração de giroscópio acessível via software do fabricante. Resistência à agua nativa sem case dedicada (IPX8 ou especificação do fabricante ≥10 m), com proteção às lentes e à porta USB-C; Armazenamento em microSD compatível, USB-C para dados/energia e conectividade Wi-Fi  / Bluetooth LE. Tela sensível ao toque para visualização/configuração, e redução de vento por algoritmo; Bateria de 2400 mAh. Marca/modelo de referência: Insta 360 X5, similar ou de melhor qualidade. Vide catálogo ilustrativo em anexo</t>
+  </si>
+  <si>
+    <t>DRONE ULTRALEVE (SUB-250 g) COM CAPACIDADE DE GRAVAÇÃO 4K. Peso de decolagem &lt; 249 g e autonomia nominal mínima de 34 minutos com bateria padrão do fabricante. Câmera integrada com sensor 1/1.3" CMOS (Quad Bayer, ~48 MP), lente 24 mm eq. F1. 7, gravação 4K até 100 fps com codificação H.265 /HEVC (e/ou H.264/AVC), suporte a perfil de cor D-Log M e HLG e fotografia RAW/JPEG até 48 MP, com gimbal mecânico de 3 eixos e captura vertical nativa; Sensoriamento de obstáculos omnidirecional com sistema de assistência ao piloto (APAS ou equivalente), modo RTH inteligente, geocercas e failsafes conforme especificação do fabricante; Link de dados e vídeo digital com tecnologia de transmissão (ex.: O3/OcuSync 3.0 ou equivalente), downlink 1080p de baixa latência; GNSS multiconstelação e luzes auxiliares conforme especificação. Controle com tela LCD. Marca/modelo de referência: DJI Mini 4 Pro, ou equivalente /superior. Vide catálogo ilustrativo em anexo</t>
   </si>
   <si>
     <t>DISPENSA - UASG 160377 - 8 ESQUADRAO DE CAVALARIA MECANIZADO</t>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,7 +467,29 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
